--- a/gamescores.xlsx
+++ b/gamescores.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game Pass for PC Metascores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game Pass for Xbox Metascores" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,129 +369,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A Plague Tale: Innocence</t>
+          <t>Wasteland 3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+          <t>Minecraft Dungeons</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Age of Empires: Definitive Edition</t>
+          <t>Final Fantasy IX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Age of Empires II: HD Edition</t>
+          <t>MechWarrior 5: Mercenaries</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Age of Wonders: Planetfall</t>
+          <t>HyperDot</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ape Out</t>
+          <t>Levelhead</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARK: Survival Evolved</t>
+          <t>Streets of Rage 4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Astrologaster</t>
+          <t>Moving Out</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASTRONEER</t>
+          <t>Deliver Us The Moon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bad North</t>
+          <t>Yakuza Kiwami</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The Banner Saga</t>
+          <t>Gato Roboto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Banner Saga 3</t>
+          <t>The Long Dark</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Bard's Tale Trilogy Remaster</t>
+          <t>Alvastia Chronicles</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -500,77 +499,77 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Bard's Tale IV: Director's Cut</t>
+          <t>Power Rangers: Battle for the Grid</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Battle Chasers: Nightwar</t>
+          <t>Bleeding Edge</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Battlefleet Gothic: Armada</t>
+          <t>The Surge 2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Battletoads</t>
+          <t>Pikuniku</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blair Witch</t>
+          <t>Ori and the Will of the Wisps</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Blazing Chrome</t>
+          <t>Train Sim World 2020</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bleeding Edge</t>
+          <t>Yakuza 0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bloodstained: Ritual of the Night</t>
+          <t>Two Point Hospital</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -580,67 +579,69 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Book of Demons</t>
+          <t>Wasteland Remastered</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bridge Constructor Portal</t>
+          <t>Wolfenstein: Youngblood</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Broforce</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>83</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brothers: A Tale of Two Sons</t>
+          <t>Sea Salt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Children of Morta</t>
+          <t>A Plague Tale: Innocence</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clustertruck</t>
+          <t>Indivisible</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Creature in the Well</t>
+          <t>Children of Morta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -650,197 +651,2460 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CrossCode</t>
+          <t>Totally Accurate Battle Simulator</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Crackdown 3</t>
+          <t>Overcooked! 2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Darksiders III</t>
+          <t>Pathologic 2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dead Cells</t>
+          <t>Ticket to Ride</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dead Rising 4</t>
+          <t>Demon's Tilt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Death's Gambit</t>
+          <t>Wandersong</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Deliver Us The Moon</t>
+          <t>My Friend Pedro</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Demon's Tilt</t>
+          <t>Darksiders III</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Descenders</t>
+          <t>Munchkin: Quacked Quest</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Die for Valhalla!</t>
+          <t>Vambrace: Cold Soul</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DiRT Rally 2.0</t>
+          <t>Tracks: The Train Set Game</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dishonored 2</t>
+          <t>Age of Wonders: Planetfall</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Disneyland Adventures</t>
+          <t>RAGE 2</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Downwell</t>
+          <t>The Talos Principle</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Enter the Gungeon</t>
+          <t>Subnautica</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Europa Universalis IV</t>
+          <t>The Lord of the Rings: Adventure Card Game</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EVERSPACE</t>
+          <t>The Outer Worlds</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F1 2018</t>
+          <t>Lonely Mountains: Downhill</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Faeria</t>
+          <t>Minit</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Farming Simulator 17</t>
+          <t>Felix the Reaper</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dishonored 2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bad North</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DiRT Rally 2.0</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bloodstained: Ritual of the Night</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Enter the Gungeon</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Creature in the Well</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Gears 5</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Dead Cells</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Blair Witch</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The Bard's Tale IV: Director's Cut</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kingdom Come: Deliverance</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Yoku's Island Express</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Slay the Spire</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The Bard's Tale Trilogy Remaster</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Pandemic: The Board Game</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Killer Instinct: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Worms W.M.D</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The Banner Saga 3</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Blazing Chrome</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Dead Rising 4</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Timespinner</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Middle-earth: Shadow of War</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>My Time At Portia</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Goat Simulator</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ASTRONEER</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Battle Chasers: Nightwar</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Bridge Constructor Portal</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EVERSPACE</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guacamelee! 2</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Metro Exodus</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Momodora: Reverie Under the Moonlight</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Moonlighter</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Neon Chrome</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Riptide GP: Renegade</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Riverbond</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SteamWorld Dig 2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The Turing Test</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wizard of Legend</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SUPERHOT</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Dead by Daylight</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Void Bastards</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>For the King</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Surviving Mars</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tacoma</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Descenders</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Wargroove</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Marvel vs. Capcom: Infinite</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sea of Thieves</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>F1 2018</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Alien: Isolation</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Crackdown 3</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>We Happy Few</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Frostpunk</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ARK: Survival Evolved</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ori and the Blind Forest: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shadow Warrior 2</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hellblade: Senua's Sacrifice</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Spintires: MudRunner</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Mutant Year Zero: Road to Eden</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>The Gardens Between</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hello Neighbor</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Forza Horizon 4</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Metro: 2033 Redux</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Halo: The Master Chief Collection</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Human: Fall Flat</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Disneyland Adventures</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Wasteland 2: Director's Cut</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>State of Decay 2:  Juggernaut Edition</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Clustertruck</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oxenfree</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Super Lucky's Tale</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Halo Wars 2</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RiME</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Zoo Tycoon: Ultimate Animal Collection</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Gears of War 4</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Halo Wars: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Metro: Last Light Redux</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ReCore</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>The Flame in the Flood</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Gears of War: Ultimate Edition for Windows 10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Halo: Spartan Assault</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sunset Overdrive</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Brothers: A Tale of Two Sons</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Old Man's Journey</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Endless Legend</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Halo 2: Anniversary</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Gears Tactics</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Machinarium</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Football Manager 2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MISTOVER</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Stranger Things 3: The Game</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Astrologaster</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mother Russia Bleeds</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Halo: Combat Evolved Anniversary</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Reigns: Game Of Thrones</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>World of Horror</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Death's Gambit</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Final Fantasy XV: Windows Edition</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ScourgeBringer</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>FTL: Faster Than Light</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Phoenix Point</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Infinifactory</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Pillars of Eternity</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>eFootball PES 2020</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Faeria</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Europa Universalis IV</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hearts of Iron IV</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Age of Empires II: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>State of Mind</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>The Red Strings Club</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>GoNNER</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ape Out</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Age of Empires: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Stellaris</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Space Hulk: Tactics</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Where the Water Tastes Like Wine</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Downwell</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Night Call</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Unavowed</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Undertale</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Torment: Tides of Numenera</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CrossCode</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Metal Slug X</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Battlefleet Gothic: Armada</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Book of Demons</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Broforce</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Halo: Spartan Strike</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hatoful Boyfriend</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hollow Knight</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hotline Miami</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Rise of Nations: Extended Edition</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Samorost 3</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>The Last Door: Season 2</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>The Messenger</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>The Stillness of the Wind</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Thumper</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Die for Valhalla!</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Saints Row IV</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hydro Thunder Hurricane</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Opus Magnum</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Stealth Inc 2: A Game of Clones</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Alan Wake</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars III: The Clone Wars</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fallout: New Vegas</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fable Anniversary</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mass Effect</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Double Dragon: Neon</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Fable III</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Gears of War</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hydro Thunder Hurricane</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B234"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Game Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Metascore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wasteland 3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Minecraft Dungeons</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Final Fantasy IX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HyperDot</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Levelhead</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Streets of Rage 4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Moving Out</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Deliver Us The Moon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Yakuza Kiwami</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gato Roboto</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The Long Dark</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Alvastia Chronicles</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Power Rangers: Battle for the Grid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bleeding Edge</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The Surge 2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pikuniku</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ori and the Will of the Wisps</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Train Sim World 2020</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Yakuza 0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Two Point Hospital</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wasteland Remastered</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Wolfenstein: Youngblood</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fishing Sim World: Pro Tour Collector's Edition</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sea Salt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A Plague Tale: Innocence</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Indivisible</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Children of Morta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Totally Accurate Battle Simulator</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Overcooked! 2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pathologic 2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ticket to Ride</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Demon's Tilt</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Wandersong</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>My Friend Pedro</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Darksiders III</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Munchkin: Quacked Quest</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Vambrace: Cold Soul</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tracks: The Train Set Game</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Age of Wonders: Planetfall</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RAGE 2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The Talos Principle: Deluxe Edition</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Subnautica</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: Adventure Card Game</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The Outer Worlds</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lonely Mountains: Downhill</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Minit</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Felix the Reaper</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -850,97 +3114,97 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fez</t>
+          <t>Dishonored 2</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Felix the Reaper</t>
+          <t>Bad North</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Final Fantasy XV: Windows Edition</t>
+          <t>DiRT Rally 2.0</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fishing Sim World</t>
+          <t>Bloodstained: Ritual of the Night</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The Flame in the Flood</t>
+          <t>Enter The Gungeon</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Football Manager 2020</t>
+          <t>Creature in the Well</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>For the King</t>
+          <t>Gears 5</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Forza Horizon 4</t>
+          <t>Dead Cells</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Frostpunk</t>
+          <t>Blair Witch</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FTL: Advanced Edition</t>
+          <t>The Bard's Tale IV: Director's Cut</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -950,491 +3214,491 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>The Gardens Between</t>
+          <t>Kingdom Come: Deliverance</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gato Roboto</t>
+          <t>Yoku's Island Express</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gears of War 4</t>
+          <t>Slay the Spire</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gears of War: Ultimate Edition for Windows 10</t>
+          <t>The Bard's Tale Trilogy Remaster</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gears 5</t>
+          <t>Pandemic: The Board Game</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gears Tactics</t>
+          <t>Killer Instinct: Definitive Edition</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goat Simulator</t>
+          <t>Worms W.M.D</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GoNNER</t>
+          <t>The Banner Saga 3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GRIS</t>
+          <t>Blazing Chrome</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Guacamelee! 2</t>
+          <t>Dead Rising 4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Halo: The Master Chief Collection</t>
+          <t>Timespinner</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Halo Wars: Definitive Edition</t>
+          <t>Middle-earth: Shadow of War</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Halo Wars 2</t>
+          <t>My Time At Portia</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Halo: Spartan Assault</t>
+          <t>Goat Simulator</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Halo: Spartan Strike</t>
+          <t>ASTRONEER</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hatoful Boyfriend</t>
+          <t>Battle Chasers: Nightwar</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hearts of Iron IV</t>
+          <t>Bridge Constructor Portal</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hellblade: Senua's Sacrifice</t>
+          <t>EVERSPACE</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hello Neighbor</t>
+          <t>Guacamelee! 2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hollow Knight</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hotline Miami</t>
+          <t>Momodora: Reverie Under the Moonlight</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Human: Fall Flat</t>
+          <t>Moonlighter</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hydro Thunder Hurricane</t>
+          <t>Neon Chrome</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HyperDot</t>
+          <t>Riptide GP: Renegade</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Imperator: Rome</t>
+          <t>Riverbond</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Indivisible</t>
+          <t>SteamWorld Dig 2</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Infinifactory</t>
+          <t>Supermarket Shriek</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Into the Breach</t>
+          <t>The Turing Test</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Killer Instinct: Definitive Edition</t>
+          <t>Wizard of Legend</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kingdom Come: Deliverance</t>
+          <t>SUPERHOT</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Last Door: Season 2</t>
+          <t>Dead by Daylight</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Levelhead</t>
+          <t>Void Bastards</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lonely Mountains: Downhill</t>
+          <t>For the King</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Long Dark</t>
+          <t>Surviving Mars</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: Adventure Card Game</t>
+          <t>Tacoma</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Machinarium</t>
+          <t>Descenders</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marvel vs. Capcom: Infinite</t>
+          <t>Wargroove</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Messenger</t>
+          <t>Marvel vs. Capcom: Infinite</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Sea of Thieves</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Metro: Last Light Redux</t>
+          <t>F1 2018</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Microsoft Flight Simulator</t>
+          <t>Alien: Isolation</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Middle-earth: Shadow of War</t>
+          <t>Crackdown 3</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Minecraft Dungeons</t>
+          <t>We Happy Few</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Minit</t>
+          <t>Frostpunk: Console Edition</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Momodora: Reverie Under the Moonlight</t>
+          <t>ARK: Survival Evolved</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Moonlighter</t>
+          <t>Ori and the Blind Forest: Definitive Edition</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mother Russia Bleeds</t>
+          <t>Shadow Warrior 2</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Spintires: MudRunner</t>
+          <t>Hellblade: Senua's Sacrifice</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Munchkin: Quacked Quest</t>
+          <t>Spintires: Mudrunner</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109">
@@ -1444,13 +3708,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>My Friend Pedro</t>
+          <t>The Gardens Between</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1460,247 +3724,249 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>My Time At Portia</t>
+          <t>Hello Neighbor</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Neon Chrome</t>
+          <t>Forza Horizon 4</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Old Man's Journey</t>
+          <t>Metro: 2033 Redux</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Opus Magnum</t>
+          <t>Halo: The Master Chief Collection</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest: Definitive Edition</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>88</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ori and the Will of the Wisps</t>
+          <t>Human: Fall Flat</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>The Outer Worlds</t>
+          <t>Disneyland Adventures</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Overcooked! 2</t>
+          <t>Wasteland 2: Director's Cut</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Oxenfree</t>
+          <t>State of Decay 2:  Juggernaut Edition</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pandemic: The Board Game</t>
+          <t>ClusterTruck</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pathologic 2</t>
+          <t>Oxenfree</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Phoenix Point</t>
+          <t>Super Lucky's Tale</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Pillars of Eternity II: Deadfire</t>
+          <t>Halo Wars 2</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Power Rangers: Battle for the Grid</t>
+          <t>RiME</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Zoo Tycoon: Ultimate Animal Collection</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Psychonauts 2</t>
+          <t>Gears of War 4</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RAGE 2</t>
+          <t>Halo Wars: Definitive Edition</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ReCore</t>
+          <t>Metro: Last Light Redux</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The Red Strings Club</t>
+          <t>ReCore</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Reigns: Game Of Thrones</t>
+          <t>The Flame in the Flood</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RiME</t>
+          <t>Gears of War: Ultimate Edition</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Riptide GP: Renegade</t>
+          <t>Halo: Spartan Assault</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Rise of Nations: Extended Edition</t>
+          <t>Sunset Overdrive</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Rise of the Tomb Raider</t>
+          <t>Brothers: A Tale of Two Sons</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Riverbond</t>
+          <t>Old Man's Journey</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1710,211 +3976,253 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Rush: A Disney-Pixar Adventure</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Saints Row IV</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>86</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Samorost 3</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>80</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sea Salt</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sea of Thieves</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>67</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ScourgeBringer</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Shadow Tactics: Blades of the Shogun</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>85</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Shadow Warrior 2</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>78</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Slay the Spire</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>89</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Space Hulk: Tactics</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>73</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>State of Decay 2</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>69</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>State of Decay 2: Heartland</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>State of Mind</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>69</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Stealth Inc 2: A Game of Clones</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>77</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SteamWorld Dig 2</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>85</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Stellaris</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>78</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Streets of Rage 4</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>84</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Subnautica</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>87</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sunset Overdrive</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>83</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Super Lucky's Tale</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>59</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SUPERHOT</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>82</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -1932,341 +4240,789 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The Surge 2</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>76</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Surviving Mars</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>76</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Tacoma</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>76</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Talos Principle</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>85</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Thumper</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Timespinner</t>
+          <t>Fractured Minds</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Titan Quest: Anniversary Edition</t>
+          <t>DayZ</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Red Dead Redemption 2</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Torment: Tides of Numenera</t>
+          <t>Journey to the Savage Planet</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Totally Accurate Battle Simulator</t>
+          <t>NieR: Automata - Become as Gods Edition</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tracks: The Train Set Game</t>
+          <t>Totally Reliable Delivery Service</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Train Sim World 2020</t>
+          <t>Ace Combat 7: Skies Unknown</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>The Turing Test</t>
+          <t>Kona</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Two Point Hospital</t>
+          <t>NBA 2K20</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Unavowed</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>87</v>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Undertale</t>
+          <t>The Jackbox Party Pack 3</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Valkyria Chronicles</t>
+          <t>Kingdom Hearts III</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vambrace: Cold Soul</t>
+          <t>Death Squared</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Void Bastards</t>
+          <t>Final Fantasy XV</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wandersong</t>
+          <t>Pillars of Eternity: Complete Edition</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wargroove</t>
+          <t>The Witcher 3: Wild Hunt</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Wasteland Remastered</t>
+          <t>Untitled Goose Game</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Wasteland 2: Director's Cut</t>
+          <t>Naruto to Boruto: Shinobi Striker</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>We Happy Few</t>
+          <t>The Escapists 2</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>West of Loathing</t>
+          <t>Remnant: From the Ashes</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Where the Water Tastes Like Wine</t>
+          <t>Afterparty</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Wizard of Legend</t>
+          <t>Secret Neighbor</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>World of Horror</t>
+          <t>World War Z</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Wolfenstein II: The New Colossus</t>
+          <t>Yooka-Laylee</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Wolfenstein: Youngblood</t>
+          <t>Jump Force</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Worms W.M.D</t>
+          <t>GoNNER: BLuEBERRY EDiTION</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Yakuza 0</t>
+          <t>Devil May Cry 5</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Yoku's Island Express</t>
+          <t>Stellaris: Console Edition</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Zoo Tycoon: Ultimate Animal Collection</t>
+          <t>Ashes Cricket</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Killer Instinct</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Killer Instinct 2 Classic</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Metal Gear Solid V: The Phantom Pain</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Rare Replay</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Resident Evil: Revelations</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ACA NeoGeo: Metal Slug X</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Batman: Arkham Knight</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hollow Knight: Voidheart Edition</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Shadow Tactics: Blades of the Shogun</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Outer Wilds</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Monster Hunter: World</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Minecraft: Xbox One Edition</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>The Walking Dead: Michonne - A Telltale Miniseries</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>What Remains of Edith Finch</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>De Blob</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tekken 7</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sword Art Online: Fatal Bullet</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Absolver</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Farming Simulator 17</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Life is Strange 2</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mortal Kombat X</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>PlayerUnknown's Battlegrounds</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sniper Elite 4</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Westerado: Double Barreled</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Giana Sisters: Twisted Dreams - Director's Cut</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Quantum Break</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ryse: Son of Rome</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Rocket League</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DiRT 4</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>The Elder Scrolls Online: Tamriel Unlimited</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>theHunter: Call of the Wild</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Costume Quest 2</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>State of Decay: Year One Survival Edition</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Dead Island: Definitive Collection</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Halo 5: Guardians</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Max: The Curse of Brotherhood</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Payday 2: Crimewave Edition</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ScreamRide</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Terraria</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>#IDARB</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
